--- a/IT002-OOP/it002m22htcl/it002m22htcl2.xlsx
+++ b/IT002-OOP/it002m22htcl/it002m22htcl2.xlsx
@@ -505,7 +505,9 @@
       <c r="D4" t="n">
         <v>800</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>800</v>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -541,7 +543,9 @@
       <c r="D6" t="n">
         <v>242.86</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>600</v>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -560,7 +564,9 @@
       <c r="D7" t="n">
         <v>800</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>800</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -579,7 +585,9 @@
       <c r="D8" t="n">
         <v>800</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>800</v>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -598,7 +606,9 @@
       <c r="D9" t="n">
         <v>600</v>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>500</v>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -617,7 +627,9 @@
       <c r="D10" t="n">
         <v>714.29</v>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>600</v>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -636,7 +648,9 @@
       <c r="D11" t="n">
         <v>25</v>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>33.33</v>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -670,7 +684,9 @@
       <c r="D13" t="n">
         <v>400</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>450</v>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -706,7 +722,9 @@
       <c r="D15" t="n">
         <v>200</v>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>400</v>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -725,7 +743,9 @@
       <c r="D16" t="n">
         <v>635.71</v>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>350</v>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -744,7 +764,9 @@
       <c r="D17" t="n">
         <v>557.14</v>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>300</v>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -782,7 +804,9 @@
       <c r="D19" t="n">
         <v>200</v>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>166.67</v>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
     </row>
@@ -801,7 +825,9 @@
       <c r="D20" t="n">
         <v>700</v>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>600</v>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -820,7 +846,9 @@
       <c r="D21" t="n">
         <v>714.29</v>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>700</v>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -839,7 +867,9 @@
       <c r="D22" t="n">
         <v>600</v>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>600</v>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -858,7 +888,9 @@
       <c r="D23" t="n">
         <v>700</v>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>750</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
     </row>
